--- a/test_output/workflow_test/scenario_comparison.xlsx
+++ b/test_output/workflow_test/scenario_comparison.xlsx
@@ -516,13 +516,13 @@
         <v>600</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8576703315846796</v>
+        <v>0.8678757465277042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5119421332579847</v>
+        <v>0.5149789247094966</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5023947736003005</v>
+        <v>0.5042681511465438</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -531,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06835207590790854</v>
+        <v>0.06916539691385787</v>
       </c>
       <c r="H2" t="n">
-        <v>5.086871334186633</v>
+        <v>5.13538877421817</v>
       </c>
       <c r="I2" t="n">
         <v>480</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>112.3411271217071</v>
+        <v>112.3458049393424</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -562,40 +562,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B3" t="n">
-        <v>30.31920629273107</v>
+        <v>30.71866907403464</v>
       </c>
       <c r="C3" t="n">
-        <v>3.082600796705508</v>
+        <v>3.081840487483596</v>
       </c>
       <c r="D3" t="n">
-        <v>3.082569616694155</v>
+        <v>3.081804573429415</v>
       </c>
       <c r="E3" t="n">
-        <v>24.18342118493997</v>
+        <v>24.18330223700058</v>
       </c>
       <c r="F3" t="n">
-        <v>24.11195128693015</v>
+        <v>24.10613305948958</v>
       </c>
       <c r="G3" t="n">
-        <v>2.351835790529043</v>
+        <v>2.383401061637665</v>
       </c>
       <c r="H3" t="n">
-        <v>88.48468529673852</v>
+        <v>89.65922784542758</v>
       </c>
       <c r="I3" t="n">
         <v>480</v>
       </c>
       <c r="J3" t="n">
-        <v>1.843430943682053</v>
+        <v>1.867900580113075</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>444.2534441603446</v>
+        <v>450.0812534530714</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -611,40 +611,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="B4" t="n">
-        <v>69.43625233959186</v>
+        <v>71.8903008454833</v>
       </c>
       <c r="C4" t="n">
-        <v>4.738467566012544</v>
+        <v>4.734594539096623</v>
       </c>
       <c r="D4" t="n">
-        <v>4.737990901910657</v>
+        <v>4.734099068704251</v>
       </c>
       <c r="E4" t="n">
-        <v>38.53361487442724</v>
+        <v>38.53131181010473</v>
       </c>
       <c r="F4" t="n">
-        <v>38.46223212796337</v>
+        <v>38.45428315748122</v>
       </c>
       <c r="G4" t="n">
-        <v>3.686153743602786</v>
+        <v>3.818851138070488</v>
       </c>
       <c r="H4" t="n">
-        <v>170.9944080657889</v>
+        <v>177.0949628351989</v>
       </c>
       <c r="I4" t="n">
         <v>480</v>
       </c>
       <c r="J4" t="n">
-        <v>3.562383501370603</v>
+        <v>3.689478392399978</v>
       </c>
       <c r="K4" t="n">
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1330.023206306569</v>
+        <v>1376.955136523368</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -660,43 +660,43 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="B5" t="n">
-        <v>118.4622401217502</v>
+        <v>121.6017994420231</v>
       </c>
       <c r="C5" t="n">
-        <v>6.244514497596091</v>
+        <v>6.226907061890508</v>
       </c>
       <c r="D5" t="n">
-        <v>6.24177030373642</v>
+        <v>6.224037891463015</v>
       </c>
       <c r="E5" t="n">
-        <v>51.5711449727519</v>
+        <v>51.55675097770298</v>
       </c>
       <c r="F5" t="n">
-        <v>51.49611994837961</v>
+        <v>51.47691576655491</v>
       </c>
       <c r="G5" t="n">
-        <v>5.164368718822698</v>
+        <v>5.310947514377122</v>
       </c>
       <c r="H5" t="n">
-        <v>261.5956835941387</v>
+        <v>268.8283216842783</v>
       </c>
       <c r="I5" t="n">
         <v>480</v>
       </c>
       <c r="J5" t="n">
-        <v>5.44991007487789</v>
+        <v>5.60059003508913</v>
       </c>
       <c r="K5" t="n">
         <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>2900.416665198773</v>
+        <v>2976.848647266396</v>
       </c>
       <c r="M5" t="n">
-        <v>859.3549819616001</v>
+        <v>877.0260989985096</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -709,43 +709,43 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="B6" t="n">
-        <v>163.3139112547767</v>
+        <v>168.9319101544706</v>
       </c>
       <c r="C6" t="n">
-        <v>7.439594467779449</v>
+        <v>7.404025875251799</v>
       </c>
       <c r="D6" t="n">
-        <v>7.431266900802775</v>
+        <v>7.395483172797983</v>
       </c>
       <c r="E6" t="n">
-        <v>61.90375865764912</v>
+        <v>61.88301812652696</v>
       </c>
       <c r="F6" t="n">
-        <v>61.82415909487026</v>
+        <v>61.79873719887092</v>
       </c>
       <c r="G6" t="n">
-        <v>6.393094383709668</v>
+        <v>6.631241009593016</v>
       </c>
       <c r="H6" t="n">
-        <v>336.5377849310684</v>
+        <v>348.7742969885265</v>
       </c>
       <c r="I6" t="n">
         <v>480</v>
       </c>
       <c r="J6" t="n">
-        <v>7.011203852730591</v>
+        <v>7.26613118726097</v>
       </c>
       <c r="K6" t="n">
         <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>4729.625494878985</v>
+        <v>4891.416440311873</v>
       </c>
       <c r="M6" t="n">
-        <v>1885.414721782291</v>
+        <v>1938.046402406422</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -758,46 +758,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="B7" t="n">
-        <v>200.6970518679321</v>
+        <v>209.7779859194627</v>
       </c>
       <c r="C7" t="n">
-        <v>8.404036698558278</v>
+        <v>8.332232478005091</v>
       </c>
       <c r="D7" t="n">
-        <v>8.386819589419467</v>
+        <v>8.314477293407698</v>
       </c>
       <c r="E7" t="n">
-        <v>70.30640190953538</v>
+        <v>70.28495482032018</v>
       </c>
       <c r="F7" t="n">
-        <v>70.22302656991204</v>
+        <v>70.19377281226988</v>
       </c>
       <c r="G7" t="n">
-        <v>7.342926704744213</v>
+        <v>7.709843018029283</v>
       </c>
       <c r="H7" t="n">
-        <v>394.1312469359563</v>
+        <v>413.3631685703516</v>
       </c>
       <c r="I7" t="n">
         <v>480</v>
       </c>
       <c r="J7" t="n">
-        <v>8.211067644499089</v>
+        <v>8.611732678548993</v>
       </c>
       <c r="K7" t="n">
         <v>25</v>
       </c>
       <c r="L7" t="n">
-        <v>6558.38310741329</v>
+        <v>6854.197547012961</v>
       </c>
       <c r="M7" t="n">
-        <v>3021.605406182444</v>
+        <v>3131.503440440872</v>
       </c>
       <c r="N7" t="n">
-        <v>536.8546419231075</v>
+        <v>530.4238094679079</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -810,13 +810,13 @@
         <v>400</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5694905986963161</v>
+        <v>0.5721657080754552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5109161009612234</v>
+        <v>0.512114676648408</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5004294498046377</v>
+        <v>0.5027385963179115</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04538557904761525</v>
+        <v>0.04559877201070527</v>
       </c>
       <c r="H8" t="n">
-        <v>3.380345429062138</v>
+        <v>3.393082218936029</v>
       </c>
       <c r="I8" t="n">
         <v>480</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>74.89303526222142</v>
+        <v>74.8942614420387</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -856,40 +856,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B9" t="n">
-        <v>20.26030830304637</v>
+        <v>20.32151034321782</v>
       </c>
       <c r="C9" t="n">
-        <v>3.082271932382564</v>
+        <v>3.082983945489418</v>
       </c>
       <c r="D9" t="n">
-        <v>3.082234977664496</v>
+        <v>3.082954101582371</v>
       </c>
       <c r="E9" t="n">
-        <v>24.18678002782787</v>
+        <v>24.18674884842458</v>
       </c>
       <c r="F9" t="n">
-        <v>24.109412775698</v>
+        <v>24.11484980770635</v>
       </c>
       <c r="G9" t="n">
-        <v>1.571739657079755</v>
+        <v>1.576129479872707</v>
       </c>
       <c r="H9" t="n">
-        <v>59.13091980024898</v>
+        <v>59.30413071936137</v>
       </c>
       <c r="I9" t="n">
         <v>480</v>
       </c>
       <c r="J9" t="n">
-        <v>1.231894162505187</v>
+        <v>1.235502723320029</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>296.8586293022064</v>
+        <v>297.7702245715509</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -905,40 +905,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B10" t="n">
-        <v>47.81801032753844</v>
+        <v>48.04698087037325</v>
       </c>
       <c r="C10" t="n">
-        <v>4.790715432788244</v>
+        <v>4.789649623770505</v>
       </c>
       <c r="D10" t="n">
-        <v>4.790419566619873</v>
+        <v>4.789385732980367</v>
       </c>
       <c r="E10" t="n">
-        <v>38.59189982636792</v>
+        <v>38.59153620314448</v>
       </c>
       <c r="F10" t="n">
-        <v>38.51326884930663</v>
+        <v>38.51915932782047</v>
       </c>
       <c r="G10" t="n">
-        <v>2.517081874176959</v>
+        <v>2.529577127661593</v>
       </c>
       <c r="H10" t="n">
-        <v>117.2481406311417</v>
+        <v>117.8199230211342</v>
       </c>
       <c r="I10" t="n">
         <v>480</v>
       </c>
       <c r="J10" t="n">
-        <v>2.442669596482117</v>
+        <v>2.454581729606963</v>
       </c>
       <c r="K10" t="n">
         <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>915.4657801294381</v>
+        <v>920.0028696739272</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -954,43 +954,43 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B11" t="n">
-        <v>85.16587226256551</v>
+        <v>85.27790412697688</v>
       </c>
       <c r="C11" t="n">
-        <v>6.46149933044901</v>
+        <v>6.457121087095595</v>
       </c>
       <c r="D11" t="n">
-        <v>6.459893766664773</v>
+        <v>6.455638597691814</v>
       </c>
       <c r="E11" t="n">
-        <v>51.7359420438785</v>
+        <v>51.73444978279363</v>
       </c>
       <c r="F11" t="n">
-        <v>51.65525045569141</v>
+        <v>51.66171090147062</v>
       </c>
       <c r="G11" t="n">
-        <v>3.632419525430822</v>
+        <v>3.638795998012128</v>
       </c>
       <c r="H11" t="n">
-        <v>185.54811837625</v>
+        <v>185.8419489477265</v>
       </c>
       <c r="I11" t="n">
         <v>480</v>
       </c>
       <c r="J11" t="n">
-        <v>3.865585799505209</v>
+        <v>3.871707269744302</v>
       </c>
       <c r="K11" t="n">
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>2086.433182445325</v>
+        <v>2089.500232641966</v>
       </c>
       <c r="M11" t="n">
-        <v>659.7802007601074</v>
+        <v>659.9120854924157</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1006,40 +1006,40 @@
         <v>365</v>
       </c>
       <c r="B12" t="n">
-        <v>123.1277181770997</v>
+        <v>122.978023673544</v>
       </c>
       <c r="C12" t="n">
-        <v>7.864439733311933</v>
+        <v>7.859657619844877</v>
       </c>
       <c r="D12" t="n">
-        <v>7.859227332456322</v>
+        <v>7.854838548277741</v>
       </c>
       <c r="E12" t="n">
-        <v>62.19999009680278</v>
+        <v>62.19805114652858</v>
       </c>
       <c r="F12" t="n">
-        <v>62.11479867536004</v>
+        <v>62.12339795175566</v>
       </c>
       <c r="G12" t="n">
-        <v>4.671953790494625</v>
+        <v>4.667939004912062</v>
       </c>
       <c r="H12" t="n">
-        <v>248.2216540891419</v>
+        <v>247.9794469768551</v>
       </c>
       <c r="I12" t="n">
         <v>480</v>
       </c>
       <c r="J12" t="n">
-        <v>5.171284460190456</v>
+        <v>5.166238478684482</v>
       </c>
       <c r="K12" t="n">
         <v>20</v>
       </c>
       <c r="L12" t="n">
-        <v>3574.134914868396</v>
+        <v>3570.29542632243</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.527996069299</v>
+        <v>1519.75895644745</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1052,46 +1052,46 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B13" t="n">
-        <v>155.7567022906123</v>
+        <v>159.8118182681903</v>
       </c>
       <c r="C13" t="n">
-        <v>9.032867817161399</v>
+        <v>9.021723266318652</v>
       </c>
       <c r="D13" t="n">
-        <v>9.020975623695341</v>
+        <v>9.010787872514994</v>
       </c>
       <c r="E13" t="n">
-        <v>70.60773980699342</v>
+        <v>70.60581276820122</v>
       </c>
       <c r="F13" t="n">
-        <v>70.51770315907893</v>
+        <v>70.52696050898382</v>
       </c>
       <c r="G13" t="n">
-        <v>5.49291861374061</v>
+        <v>5.639628513197215</v>
       </c>
       <c r="H13" t="n">
-        <v>297.2817306802446</v>
+        <v>305.1702197634342</v>
       </c>
       <c r="I13" t="n">
         <v>480</v>
       </c>
       <c r="J13" t="n">
-        <v>6.193369389171761</v>
+        <v>6.357712911738212</v>
       </c>
       <c r="K13" t="n">
         <v>25</v>
       </c>
       <c r="L13" t="n">
-        <v>5100.591966218888</v>
+        <v>5234.115318245908</v>
       </c>
       <c r="M13" t="n">
-        <v>2509.092339329943</v>
+        <v>2571.819542471451</v>
       </c>
       <c r="N13" t="n">
-        <v>1771.127747108141</v>
+        <v>1820.90349058675</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1104,13 +1104,13 @@
         <v>600</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8361269069907487</v>
+        <v>0.8411720815708631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5054716235116</v>
+        <v>0.5069943332661339</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4957287426838499</v>
+        <v>0.4968057160504162</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1119,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05334931506223509</v>
+        <v>0.05367122386096896</v>
       </c>
       <c r="H14" t="n">
-        <v>4.984075151579765</v>
+        <v>5.008195045323141</v>
       </c>
       <c r="I14" t="n">
         <v>490</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>112.3312523432632</v>
+        <v>112.333564880946</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1150,40 +1150,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B15" t="n">
-        <v>21.67202691560568</v>
+        <v>21.44808834741062</v>
       </c>
       <c r="C15" t="n">
-        <v>2.592939183275602</v>
+        <v>2.592702385502407</v>
       </c>
       <c r="D15" t="n">
-        <v>2.592911632498767</v>
+        <v>2.592673664081908</v>
       </c>
       <c r="E15" t="n">
-        <v>24.18381094662487</v>
+        <v>24.18375297992464</v>
       </c>
       <c r="F15" t="n">
-        <v>24.10924975724781</v>
+        <v>24.10702014466022</v>
       </c>
       <c r="G15" t="n">
-        <v>1.382789840024482</v>
+        <v>1.368501376001441</v>
       </c>
       <c r="H15" t="n">
-        <v>67.72112615819039</v>
+        <v>67.02377684653456</v>
       </c>
       <c r="I15" t="n">
         <v>490</v>
       </c>
       <c r="J15" t="n">
-        <v>1.382063799146743</v>
+        <v>1.367832180541522</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>349.7736634551712</v>
+        <v>346.1578730173044</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1199,40 +1199,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B16" t="n">
-        <v>56.36927594053801</v>
+        <v>55.69596680848827</v>
       </c>
       <c r="C16" t="n">
-        <v>4.214014651252245</v>
+        <v>4.214191400883609</v>
       </c>
       <c r="D16" t="n">
-        <v>4.213895946038503</v>
+        <v>4.214070745712717</v>
       </c>
       <c r="E16" t="n">
-        <v>38.85792580794676</v>
+        <v>38.85915646213111</v>
       </c>
       <c r="F16" t="n">
-        <v>38.79319922409405</v>
+        <v>38.791585719158</v>
       </c>
       <c r="G16" t="n">
-        <v>2.738364687318738</v>
+        <v>2.705573500517634</v>
       </c>
       <c r="H16" t="n">
-        <v>145.3985685186703</v>
+        <v>143.6594589645436</v>
       </c>
       <c r="I16" t="n">
         <v>490</v>
       </c>
       <c r="J16" t="n">
-        <v>2.967317724870822</v>
+        <v>2.931825693153951</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1110.952909015237</v>
+        <v>1097.634637926815</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1248,43 +1248,43 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B17" t="n">
-        <v>99.09604601211763</v>
+        <v>97.54561141435521</v>
       </c>
       <c r="C17" t="n">
-        <v>5.640874199332876</v>
+        <v>5.646232302827041</v>
       </c>
       <c r="D17" t="n">
-        <v>5.639934540788554</v>
+        <v>5.645292669087226</v>
       </c>
       <c r="E17" t="n">
-        <v>53.28008799168032</v>
+        <v>53.28495199827061</v>
       </c>
       <c r="F17" t="n">
-        <v>53.21414584658499</v>
+        <v>53.21599421038238</v>
       </c>
       <c r="G17" t="n">
-        <v>3.974962346509915</v>
+        <v>3.910568374110508</v>
       </c>
       <c r="H17" t="n">
-        <v>227.7965295078096</v>
+        <v>224.1483997736751</v>
       </c>
       <c r="I17" t="n">
         <v>490</v>
       </c>
       <c r="J17" t="n">
-        <v>4.648908765465502</v>
+        <v>4.574457138238267</v>
       </c>
       <c r="K17" t="n">
         <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>2523.781785293575</v>
+        <v>2484.184793904862</v>
       </c>
       <c r="M17" t="n">
-        <v>591.5750726435225</v>
+        <v>583.8147108601621</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1297,43 +1297,43 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B18" t="n">
-        <v>140.0168793119795</v>
+        <v>139.7959448178068</v>
       </c>
       <c r="C18" t="n">
-        <v>6.801113314339625</v>
+        <v>6.814187089268948</v>
       </c>
       <c r="D18" t="n">
-        <v>6.797855032191516</v>
+        <v>6.810958289604335</v>
       </c>
       <c r="E18" t="n">
-        <v>67.48775834861993</v>
+        <v>67.50094061914709</v>
       </c>
       <c r="F18" t="n">
-        <v>67.41836508581618</v>
+        <v>67.42792092452903</v>
       </c>
       <c r="G18" t="n">
-        <v>5.061660932087672</v>
+        <v>5.048660016970894</v>
       </c>
       <c r="H18" t="n">
-        <v>298.9399106484793</v>
+        <v>298.2418834332651</v>
       </c>
       <c r="I18" t="n">
         <v>490</v>
       </c>
       <c r="J18" t="n">
-        <v>6.100814503030191</v>
+        <v>6.08656904965847</v>
       </c>
       <c r="K18" t="n">
         <v>20</v>
       </c>
       <c r="L18" t="n">
-        <v>4430.732159909085</v>
+        <v>4423.967842210355</v>
       </c>
       <c r="M18" t="n">
-        <v>1565.317921283075</v>
+        <v>1567.601450377289</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1346,43 +1346,43 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B19" t="n">
-        <v>176.0262769703844</v>
+        <v>176.9981058109088</v>
       </c>
       <c r="C19" t="n">
-        <v>7.738034729161415</v>
+        <v>7.745009987747919</v>
       </c>
       <c r="D19" t="n">
-        <v>7.730692559279768</v>
+        <v>7.737764072804728</v>
       </c>
       <c r="E19" t="n">
-        <v>80.33951708472161</v>
+        <v>80.35275832372183</v>
       </c>
       <c r="F19" t="n">
-        <v>80.26478922297962</v>
+        <v>80.27318757498355</v>
       </c>
       <c r="G19" t="n">
-        <v>5.969331268608765</v>
+        <v>5.999774663278867</v>
       </c>
       <c r="H19" t="n">
-        <v>357.1420587916587</v>
+        <v>358.9860285040294</v>
       </c>
       <c r="I19" t="n">
         <v>490</v>
       </c>
       <c r="J19" t="n">
-        <v>7.288613444727727</v>
+        <v>7.32624547967407</v>
       </c>
       <c r="K19" t="n">
         <v>25</v>
       </c>
       <c r="L19" t="n">
-        <v>6577.321175680324</v>
+        <v>6614.152094010635</v>
       </c>
       <c r="M19" t="n">
-        <v>2792.641059303582</v>
+        <v>2811.154536816042</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="D2" t="n">
-        <v>6558.38310741329</v>
+        <v>6854.197547012961</v>
       </c>
       <c r="E2" t="n">
-        <v>8.386819589419467</v>
+        <v>8.314477293407698</v>
       </c>
       <c r="F2" t="n">
-        <v>70.22302656991204</v>
+        <v>70.19377281226988</v>
       </c>
     </row>
     <row r="3">
@@ -1476,16 +1476,16 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D3" t="n">
-        <v>5100.591966218888</v>
+        <v>5234.115318245908</v>
       </c>
       <c r="E3" t="n">
-        <v>9.020975623695341</v>
+        <v>9.010787872514994</v>
       </c>
       <c r="F3" t="n">
-        <v>70.51770315907893</v>
+        <v>70.52696050898382</v>
       </c>
     </row>
     <row r="4">
@@ -1498,16 +1498,16 @@
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D4" t="n">
-        <v>6577.321175680324</v>
+        <v>6614.152094010635</v>
       </c>
       <c r="E4" t="n">
-        <v>7.730692559279768</v>
+        <v>7.737764072804728</v>
       </c>
       <c r="F4" t="n">
-        <v>80.26478922297962</v>
+        <v>80.27318757498355</v>
       </c>
     </row>
   </sheetData>
